--- a/biology/Écologie/Liste_des_sites_Natura_2000_de_la_Seine-Saint-Denis/Liste_des_sites_Natura_2000_de_la_Seine-Saint-Denis.xlsx
+++ b/biology/Écologie/Liste_des_sites_Natura_2000_de_la_Seine-Saint-Denis/Liste_des_sites_Natura_2000_de_la_Seine-Saint-Denis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Seine-Saint-Denis constitue l'un des seuls site[1] Natura 2000 français en milieu urbain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Seine-Saint-Denis constitue l'un des seuls site Natura 2000 français en milieu urbain.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des sites</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Localisé dans un territoire densément urbanisé et industrialisé, il prend en compte une dimension nouvelle : « la biodiversité urbaine ». Ce site est constitué de 14 parcs et forêts et couvre en partie 19 communes[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Localisé dans un territoire densément urbanisé et industrialisé, il prend en compte une dimension nouvelle : « la biodiversité urbaine ». Ce site est constitué de 14 parcs et forêts et couvre en partie 19 communes : 
 Parc départemental de la Courneuve,
 Parc départemental de l'Île-Saint-Denis,
 Parc départemental du Sausset,
@@ -528,8 +542,8 @@
 Forêt de Bondy,
 Parc forestier de la poudrerie nationale de Sevran-Livry,
 Bois des Ormes.
-Ce site départemental constitue une Zone de protection spéciale depuis avril 2006[2]
-Vingt-et-une espèces d'oiseaux listées dans l’annexe I de la Directive oiseaux (c’est-à-dire les espèces les plus menacées d’extinction) fréquentent de façon plus ou moins régulière les parcs et forêt de la Seine-Saint-Denis[1].
+Ce site départemental constitue une Zone de protection spéciale depuis avril 2006
+Vingt-et-une espèces d'oiseaux listées dans l’annexe I de la Directive oiseaux (c’est-à-dire les espèces les plus menacées d’extinction) fréquentent de façon plus ou moins régulière les parcs et forêt de la Seine-Saint-Denis.
 Parmi ces espèces menacées, on peut signaler la présence des espèces suivantes : 
 Blongios nain (Ixobrychus minutus) (zone de reproduction).
 Bondrée apivore (Pernis apivorus) (zone de reproduction).
